--- a/biology/Botanique/Parc_d'Heinätori/Parc_d'Heinätori.xlsx
+++ b/biology/Botanique/Parc_d'Heinätori/Parc_d'Heinätori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27Hein%C3%A4tori</t>
+          <t>Parc_d'Heinätori</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc d'Heinätori (finnois : Heinätorin puisto) est un espace vert du quartier Hollihaka à Oulu en Finlande .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27Hein%C3%A4tori</t>
+          <t>Parc_d'Heinätori</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est bordé par Torikatu, Heinätorinkatu, Kirkkokatu et Limingankatu, dont la circulation automobile n'est plus possible aux alentours du parc. 
 Du côté de Limingankatu, le parc est bordé par l'école primaire d'Heinätori, conçue par l'architecte Wolmar Westling, et dont la construction s'est achevée en 1875. 
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27Hein%C3%A4tori</t>
+          <t>Parc_d'Heinätori</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Vues du parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
